--- a/calcul.xlsx
+++ b/calcul.xlsx
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Mathieu</t>
+  </si>
+  <si>
+    <t>Hello</t>
   </si>
 </sst>
 </file>
@@ -386,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:D20"/>
+  <dimension ref="D3:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,72 +400,75 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <v>4</v>
       </c>
